--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail15 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5452,29 +5452,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>3.51846992065751e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.85656034903359</v>
+        <v>2.278124002823623e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.83886606283874</v>
+        <v>1.789089434174121e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.278124002823623e-07</v>
+        <v>0.07281744293635255</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.789089434174121e-06</v>
+        <v>0.3273989891216432</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07281744293635255</v>
+        <v>0.1122647017529684</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3273989891216432</v>
+        <v>1.923801966112693</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1122647017529684</v>
+        <v>3.139289267507531</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.949457349831174</v>
+        <v>5.473280578173378</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.139289267507531</v>
+        <v>1.061063315639851e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.473280578173378</v>
+        <v>12589288462.76749</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.061063315639851e-17</v>
+        <v>9.566466305461462e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12589288462.76749</v>
+        <v>1681.681201301057</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.566466305461462e-09</v>
+        <v>9.50291747821437e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1681.681201301057</v>
+        <v>10.76197732875968</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.50291747821437e-05</v>
+        <v>1.062826086544818</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.76197732875968</v>
+        <v>0.01100629385016991</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.062826086544818</v>
+        <v>4.812296423434987</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01100629385016991</v>
+        <v>0.9599162647848142</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.812296423434987</v>
+        <v>0.8641331169550296</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9599162647848142</v>
+        <v>241</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8641331169550296</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>241</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.152578377924955</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>2.903950502099204e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8925366620305799</v>
+        <v>1.697161657509031e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.649117193306653</v>
+        <v>1.791146699525201e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.697161657509031e-07</v>
+        <v>0.05522926055295205</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.791146699525201e-06</v>
+        <v>0.3079485986061745</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05522926055295205</v>
+        <v>0.09768622068750006</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3079485986061745</v>
+        <v>1.920568735360552</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09768622068750006</v>
+        <v>3.21893096889535</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.950059668622219</v>
+        <v>5.37605479265453</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.21893096889535</v>
+        <v>1.09978894832798e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.37605479265453</v>
+        <v>12484161131.27304</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.09978894832798e-17</v>
+        <v>9.648461206495005e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>12484161131.27304</v>
+        <v>1714.06813760541</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.648461206495005e-09</v>
+        <v>0.000113100774029515</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1714.06813760541</v>
+        <v>9.712186446390723</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000113100774029515</v>
+        <v>1.29697508912597</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.712186446390723</v>
+        <v>0.01066840757745123</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.29697508912597</v>
+        <v>4.729920244237356</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01066840757745123</v>
+        <v>0.9597509046364091</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.729920244237356</v>
+        <v>0.9282495102899093</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9597509046364091</v>
+        <v>243</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9282495102899093</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.770558140776158</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>2.585588275905466e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2267840244692281</v>
+        <v>1.250444848215259e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.745774919100608</v>
+        <v>1.792364818172035e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.250444848215259e-07</v>
+        <v>0.03357402332703369</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.792364818172035e-06</v>
+        <v>0.2688029343306751</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03357402332703369</v>
+        <v>0.07323037917965948</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2688029343306751</v>
+        <v>1.92097729139225</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07323037917965948</v>
+        <v>3.268933699484464</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.94996174542145</v>
+        <v>5.205520310476446</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.268933699484464</v>
+        <v>1.173028147364026e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.205520310476446</v>
+        <v>11733397890.91596</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.173028147364026e-17</v>
+        <v>1.02628564993668e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>11733397890.91596</v>
+        <v>1614.938654975866</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.02628564993668e-08</v>
+        <v>0.0001385070197098929</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1614.938654975866</v>
+        <v>9.263518076735036</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001385070197098929</v>
+        <v>1.525226386294112</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.263518076735036</v>
+        <v>0.01188567063211311</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.525226386294112</v>
+        <v>4.478803674510369</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01188567063211311</v>
+        <v>0.9594756491683955</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.478803674510369</v>
+        <v>0.9140190582410623</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9594756491683955</v>
+        <v>223</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9140190582410623</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.15285334652325</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>2.467881131879593e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.00313320037937931</v>
+        <v>8.954505250352816e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.310130036401623</v>
+        <v>1.792926500807039e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.954505250352816e-08</v>
+        <v>0.01135493690265082</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.792926500807039e-06</v>
+        <v>0.2138675510216211</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01135493690265082</v>
+        <v>0.04576109275235394</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2138675510216211</v>
+        <v>1.922733852670381</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04576109275235394</v>
+        <v>3.472507744501426</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.949161205182107</v>
+        <v>4.996290199259509</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.472507744501426</v>
+        <v>1.36352558265466e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.996290199259509</v>
+        <v>9936809410.121876</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.36352558265466e-17</v>
+        <v>1.212184702914836e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>9936809410.121876</v>
+        <v>1346.347631745417</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.212184702914836e-08</v>
+        <v>0.0001406081773572615</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1346.347631745417</v>
+        <v>9.769496876306269</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001406081773572615</v>
+        <v>1.411559761122641</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.769496876306269</v>
+        <v>0.01342007600386692</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.411559761122641</v>
+        <v>4.298600065926983</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01342007600386692</v>
+        <v>0.9585330798080667</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.298600065926983</v>
+        <v>0.9158278194524357</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9585330798080667</v>
+        <v>203</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9158278194524357</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.629221452945772</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>2.46029167722952e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.009820260144618911</v>
+        <v>7.490516960343932e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.332076314715099</v>
+        <v>1.792962175929326e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.490516960343932e-08</v>
+        <v>-0.007453876162571134</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.792962175929326e-06</v>
+        <v>0.1573517329277495</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.007453876162571134</v>
+        <v>0.02475556016997472</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1573517329277495</v>
+        <v>1.922562393554304</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02475556016997472</v>
+        <v>3.243302607712591</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.951800487002826</v>
+        <v>4.921936982090401</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.243302607712591</v>
+        <v>1.405032932854748e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.921936982090401</v>
+        <v>9459999559.551596</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.405032932854748e-17</v>
+        <v>1.271152962632878e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>9459999559.551596</v>
+        <v>1257.38633505326</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.271152962632878e-08</v>
+        <v>0.0001340440081910705</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1257.38633505326</v>
+        <v>11.27795372892958</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001340440081910705</v>
+        <v>1.127269089781027</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.27795372892958</v>
+        <v>0.01704935770220579</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.127269089781027</v>
+        <v>4.156735950884319</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01704935770220579</v>
+        <v>0.958348280253321</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.156735950884319</v>
+        <v>0.9361353907840463</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.958348280253321</v>
+        <v>203</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9361353907840463</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.47407684875179</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>2.493793339060097e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0115311981687899</v>
+        <v>7.490516960343932e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.360514310069672</v>
+        <v>1.792600206164072e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.490516960343932e-08</v>
+        <v>-0.02078719223774685</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.792600206164072e-06</v>
+        <v>0.1151286467497636</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02078719223774685</v>
+        <v>0.01366002096549845</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1151286467497636</v>
+        <v>1.924601484299888</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01366002096549845</v>
+        <v>2.767320204800424</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.954362787645882</v>
+        <v>5.105469165393933</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.767320204800424</v>
+        <v>1.645806371850681e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.105469165393933</v>
+        <v>7975063859.329692</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.645806371850681e-17</v>
+        <v>1.503899164668347e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7975063859.329692</v>
+        <v>1046.759902318601</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.503899164668347e-08</v>
+        <v>0.0001422645682965559</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1046.759902318601</v>
+        <v>12.51709158513629</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001422645682965559</v>
+        <v>1.03151501505772</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.51709158513629</v>
+        <v>0.02228966852951022</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.03151501505772</v>
+        <v>3.986321156402126</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02228966852951022</v>
+        <v>0.9581971579407376</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.986321156402126</v>
+        <v>0.8870950993010366</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9581971579407376</v>
+        <v>170</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8870950993010366</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.452330723145359</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>2.533075746086596e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.04250359589611218</v>
+        <v>7.490516960343932e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.397632025604263</v>
+        <v>1.791955622743533e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.490516960343932e-08</v>
+        <v>-0.02985281999380133</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.791955622743533e-06</v>
+        <v>0.08849163819176149</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02985281999380133</v>
+        <v>0.008710166162845024</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08849163819176149</v>
+        <v>1.924430944245494</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008710166162845024</v>
+        <v>2.925495053776489</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.955711259869731</v>
+        <v>5.126354080578975</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.925495053776489</v>
+        <v>1.834670901654451e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.126354080578975</v>
+        <v>7016757646.961561</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.834670901654451e-17</v>
+        <v>1.70486545941987e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7016757646.961561</v>
+        <v>903.2981613267182</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.70486545941987e-08</v>
+        <v>0.0001460874248220982</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>903.2981613267182</v>
+        <v>12.69260673813271</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001460874248220982</v>
+        <v>1.050851149833356</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.69260673813271</v>
+        <v>0.02353501514502617</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.050851149833356</v>
+        <v>4.10066060626312</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02353501514502617</v>
+        <v>0.9577919252635753</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.10066060626312</v>
+        <v>0.894842867441459</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9577919252635753</v>
+        <v>162</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.894842867441459</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.674211540665612</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>2.566010693403196e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.09101091720073715</v>
+        <v>7.601425966727746e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.411636939793689</v>
+        <v>1.791105987987575e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.601425966727746e-08</v>
+        <v>-0.03643131899891781</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.791105987987575e-06</v>
+        <v>0.07130126833594806</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03643131899891781</v>
+        <v>0.006404791314609452</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07130126833594806</v>
+        <v>1.924169425892569</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006404791314609452</v>
+        <v>2.977982951205253</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.952499543662705</v>
+        <v>5.120026851771772</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.977982951205253</v>
+        <v>1.839208204142414e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.120026851771772</v>
+        <v>6974814885.161057</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.839208204142414e-17</v>
+        <v>1.715157455714922e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>6974814885.161057</v>
+        <v>894.7387921669074</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.715157455714922e-08</v>
+        <v>0.0001447998240459398</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>894.7387921669074</v>
+        <v>11.55157189036685</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001447998240459398</v>
+        <v>1.26353155382013</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.55157189036685</v>
+        <v>0.01932191666332686</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.26353155382013</v>
+        <v>4.351754588538876</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01932191666332686</v>
+        <v>0.9588317667985846</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.351754588538876</v>
+        <v>0.9327299163294097</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9588317667985846</v>
+        <v>168</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9327299163294097</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.778671793363884</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>2.58862599670065e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1449714090745155</v>
+        <v>7.769765198696932e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.398905772339425</v>
+        <v>1.790094476712281e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.769765198696932e-08</v>
+        <v>-0.04188198356988945</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.790094476712281e-06</v>
+        <v>0.05740965203604475</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04188198356988945</v>
+        <v>0.005045459621640493</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05740965203604475</v>
+        <v>1.922235224418503</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005045459621640493</v>
+        <v>3.124733073013518</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.954319305958982</v>
+        <v>5.130030299385782</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.124733073013518</v>
+        <v>1.83204236550745e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.130030299385782</v>
+        <v>7190605272.295116</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.83204236550745e-17</v>
+        <v>1.667716807180629e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7190605272.295116</v>
+        <v>947.2539176161443</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.667716807180629e-08</v>
+        <v>0.0001421972117031314</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>947.2539176161443</v>
+        <v>9.788096952885486</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001421972117031314</v>
+        <v>1.575960336985752</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.788096952885486</v>
+        <v>0.01362346578866462</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.575960336985752</v>
+        <v>4.337093011798656</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01362346578866462</v>
+        <v>0.9591653603284478</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.337093011798656</v>
+        <v>0.9369373870223521</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9591653603284478</v>
+        <v>179</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9369373870223521</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.238803611724655</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>2.598173318816804e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1962580414709702</v>
+        <v>7.932210187924651e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.366578278943733</v>
+        <v>1.788942552818896e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.932210187924651e-08</v>
+        <v>-0.04675470573853042</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.788942552818896e-06</v>
+        <v>0.04399328236626764</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04675470573853042</v>
+        <v>0.00411861722354227</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04399328236626764</v>
+        <v>1.919793832174669</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00411861722354227</v>
+        <v>3.145717363136376</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.947093685372842</v>
+        <v>5.111513372582724</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.145717363136376</v>
+        <v>1.845339891283442e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.111513372582724</v>
+        <v>7232286330.692029</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.845339891283442e-17</v>
+        <v>1.659933292614807e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>7232286330.692029</v>
+        <v>965.2228481678573</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.659933292614807e-08</v>
+        <v>0.0001267491413745734</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>965.2228481678573</v>
+        <v>9.645221583855367</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001267491413745734</v>
+        <v>1.375577310799525</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.645221583855367</v>
+        <v>0.01179151057098109</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.375577310799525</v>
+        <v>4.224684319939885</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01179151057098109</v>
+        <v>0.9604454255221102</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.224684319939885</v>
+        <v>0.9283773287074351</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9604454255221102</v>
+        <v>170</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9283773287074351</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.90954573250767</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>2.59350959175014e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2388918145427542</v>
+        <v>8.076438752134097e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.327952413634202</v>
+        <v>1.787675754337223e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8.076438752134097e-08</v>
+        <v>-0.05054260587111201</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.787675754337223e-06</v>
+        <v>0.03403540098308915</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05054260587111201</v>
+        <v>0.003712220107446388</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03403540098308915</v>
+        <v>1.919580659284913</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003712220107446388</v>
+        <v>2.901195443221419</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.946597849359238</v>
+        <v>5.088641518375695</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.901195443221419</v>
+        <v>1.861965624093225e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.088641518375695</v>
+        <v>7164990966.209274</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.861965624093225e-17</v>
+        <v>1.679473023476943e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>7164990966.209274</v>
+        <v>955.8790714718166</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.679473023476943e-08</v>
+        <v>0.0001298540622104667</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>955.8790714718166</v>
+        <v>10.73271394980501</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001298540622104667</v>
+        <v>1.162737908736425</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.73271394980501</v>
+        <v>0.01495803859306486</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.162737908736425</v>
+        <v>4.023133488862055</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01495803859306486</v>
+        <v>0.9605987630901353</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.023133488862055</v>
+        <v>0.9427271888504272</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9605987630901353</v>
+        <v>152</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9427271888504272</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>152</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.771113272695051</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>2.577282338964959e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2715111913269573</v>
+        <v>8.200174780206937e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.293765547350188</v>
+        <v>1.786335342186296e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>8.200174780206937e-08</v>
+        <v>-0.05287826025370253</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.786335342186296e-06</v>
+        <v>0.03004191856724841</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05287826025370253</v>
+        <v>0.003698795861875542</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.03004191856724841</v>
+        <v>1.92012385320887</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003698795861875542</v>
+        <v>3.094642614529889</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.945007929263122</v>
+        <v>5.158546061253542</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.094642614529889</v>
+        <v>1.811843770967336e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.158546061253542</v>
+        <v>7452381128.883615</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.811843770967336e-17</v>
+        <v>1.617987033517528e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>7452381128.883615</v>
+        <v>1006.261512505418</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.617987033517528e-08</v>
+        <v>0.0001365730439192786</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1006.261512505418</v>
+        <v>11.89258920929677</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001365730439192786</v>
+        <v>1.057557344086174</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.89258920929677</v>
+        <v>0.01931602793096416</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.057557344086174</v>
+        <v>3.940913668717503</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01931602793096416</v>
+        <v>0.9610858885170727</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.940913668717503</v>
+        <v>0.9209642329844822</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9610858885170727</v>
+        <v>170</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9209642329844822</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.0078218882842</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>2.553773216424927e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2969656175766815</v>
+        <v>8.288290100699988e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.265505136753182</v>
+        <v>1.784960922782555e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.288290100699988e-08</v>
+        <v>-0.05408768311555297</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.784960922782555e-06</v>
+        <v>0.02936194096092188</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05408768311555297</v>
+        <v>0.003787908826160138</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02936194096092188</v>
+        <v>1.921921193093706</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003787908826160138</v>
+        <v>3.121239535931231</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.946554598738733</v>
+        <v>5.202050425509803</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.121239535931231</v>
+        <v>1.781665856863501e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.202050425509803</v>
+        <v>7582701688.834685</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.781665856863501e-17</v>
+        <v>1.587720188337399e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>7582701688.834685</v>
+        <v>1024.410919052593</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.587720188337399e-08</v>
+        <v>0.000138619441185229</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1024.410919052593</v>
+        <v>12.62563898367013</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000138619441185229</v>
+        <v>1.03791136598031</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.62563898367013</v>
+        <v>0.02209687595713454</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.03791136598031</v>
+        <v>4.121201416828937</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02209687595713454</v>
+        <v>0.9609885834206839</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.121201416828937</v>
+        <v>0.9191269661299644</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9609885834206839</v>
+        <v>170</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9191269661299644</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>3.61108646605981</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>2.525315975672994e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3186452626410132</v>
+        <v>8.280126929467696e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.241533843002304</v>
+        <v>1.78357912054487e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.280126929467696e-08</v>
+        <v>-0.0546436109524639</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.78357912054487e-06</v>
+        <v>0.02974571993759259</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0546436109524639</v>
+        <v>0.003871030624811174</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02974571993759259</v>
+        <v>1.914457119231335</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003871030624811174</v>
+        <v>2.794655336518058</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.946470271724993</v>
+        <v>5.396790149151704</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.794655336518058</v>
+        <v>1.655405182614243e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.396790149151704</v>
+        <v>7863309460.550026</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.655405182614243e-17</v>
+        <v>1.528448176138262e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>7863309460.550026</v>
+        <v>1023.564101415662</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.528448176138262e-08</v>
+        <v>0.0001356655249068432</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1023.564101415662</v>
+        <v>12.21603292931117</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001356655249068432</v>
+        <v>1.195115284202423</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>12.21603292931117</v>
+        <v>0.0202455644254193</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.195115284202423</v>
+        <v>4.549559846514554</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0202455644254193</v>
+        <v>0.9584625904855176</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.549559846514554</v>
+        <v>0.9525306291813983</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9584625904855176</v>
+        <v>171</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9525306291813983</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>4.350472205083625</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>2.49255249818435e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3382564215519405</v>
+        <v>8.22821420087893e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.221440459612446</v>
+        <v>1.782203168966942e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.22821420087893e-08</v>
+        <v>-0.05501527427773938</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.782203168966942e-06</v>
+        <v>0.03045526866587299</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05501527427773938</v>
+        <v>0.00395446839301596</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03045526866587299</v>
+        <v>1.916530151699148</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00395446839301596</v>
+        <v>2.771536609155288</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.946250763686907</v>
+        <v>6.193389601333573</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.771536609155288</v>
+        <v>1.256951647598409e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.193389601333573</v>
+        <v>10374676160.64541</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.256951647598409e-17</v>
+        <v>1.158381133222298e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>10374676160.64541</v>
+        <v>1352.906147780776</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.158381133222298e-08</v>
+        <v>0.0001265348177794259</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1352.906147780776</v>
+        <v>10.86884542827332</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001265348177794259</v>
+        <v>1.477396790689141</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.86884542827332</v>
+        <v>0.01494778590636623</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.477396790689141</v>
+        <v>4.888521013035799</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01494778590636623</v>
+        <v>0.9586161843980516</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.888521013035799</v>
+        <v>0.9760372376682949</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9586161843980516</v>
+        <v>226</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9760372376682949</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>4.759152139018568</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>2.456088577351123e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.356276227924975</v>
+        <v>8.133412122140697e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.205074433316385</v>
+        <v>1.780838627507627e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.133412122140697e-08</v>
+        <v>-0.05518947496364793</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.780838627507627e-06</v>
+        <v>0.03137946693823819</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05518947496364793</v>
+        <v>0.00403068765907093</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03137946693823819</v>
+        <v>1.922683327251021</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.00403068765907093</v>
+        <v>3.344034009790365</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.950067204795529</v>
+        <v>5.087103984209993</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.344034009790365</v>
+        <v>1.158924004837062e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.087103984209993</v>
+        <v>11023568152.92736</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.158924004837062e-17</v>
+        <v>1.089983223699525e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>11023568152.92736</v>
+        <v>1408.313496785983</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.089983223699525e-08</v>
+        <v>0.0001026433255554856</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1408.313496785983</v>
+        <v>9.27661059031592</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001026433255554856</v>
+        <v>1.594010302113217</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.27661059031592</v>
+        <v>0.008833023117466808</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.594010302113217</v>
+        <v>5.044813959541262</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008833023117466808</v>
+        <v>0.9599503139898335</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>5.044813959541262</v>
+        <v>0.9180767496872526</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9599503139898335</v>
+        <v>228</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9180767496872526</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>4.826562353310076</v>
       </c>
     </row>
@@ -7262,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432289844874912</v>
+        <v>1.44398014601268</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.683840193278847</v>
@@ -7351,7 +7243,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.463717817107652</v>
+        <v>1.471483885551789</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.339974586868817</v>
@@ -7440,7 +7332,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.512315093295205</v>
+        <v>1.522556227779234</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.565643038816306</v>
@@ -7529,7 +7421,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524191553459109</v>
+        <v>1.532394959652192</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.446473333087319</v>
@@ -7618,7 +7510,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54153277457591</v>
+        <v>1.548715697732683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454242053461656</v>
@@ -7707,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567922943555656</v>
+        <v>1.576400882416862</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.282871161455423</v>
@@ -7796,7 +7688,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.611343583031683</v>
+        <v>1.617192994781529</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.48763142350285</v>
@@ -7885,7 +7777,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622711884775206</v>
+        <v>1.626882991705409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.460425522510837</v>
@@ -7974,7 +7866,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61888542301824</v>
+        <v>1.631692213963892</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.716962637288658</v>
@@ -8063,7 +7955,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.593309269175218</v>
+        <v>1.604436504784228</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.698515763266115</v>
@@ -8152,7 +8044,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584040007696038</v>
+        <v>1.598266440880178</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.654056392609343</v>
@@ -8241,7 +8133,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590623063257955</v>
+        <v>1.603373217653283</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.704930823377367</v>
@@ -8330,7 +8222,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595669621083507</v>
+        <v>1.608040228114509</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.4098324743292</v>
@@ -8419,7 +8311,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.626873345297066</v>
+        <v>1.65060714769131</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.812450082540886</v>
@@ -8508,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609573631801178</v>
+        <v>1.628361403740148</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.614362383225482</v>
@@ -8597,7 +8489,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.615331177716706</v>
+        <v>1.635540269793591</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.621634895353058</v>
@@ -8686,7 +8578,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612594723955419</v>
+        <v>1.629083776061127</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.682584292180586</v>
@@ -8775,7 +8667,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.608574730163097</v>
+        <v>1.625218380277457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.651995772684226</v>
@@ -8864,7 +8756,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.621362286691727</v>
+        <v>1.640588238265631</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.518259268795256</v>
@@ -8953,7 +8845,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.641008534632945</v>
+        <v>1.658219849847441</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.661107483994361</v>
@@ -9042,7 +8934,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.668582945791182</v>
+        <v>1.682805886437557</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.674075803689714</v>
@@ -9131,7 +9023,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.659383238275202</v>
+        <v>1.671374800187858</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.642864090001272</v>
@@ -9220,7 +9112,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.667175233369148</v>
+        <v>1.677606359602068</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.586941303042185</v>
@@ -9309,7 +9201,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663667263760271</v>
+        <v>1.679524924987044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.574118239967752</v>
@@ -9398,7 +9290,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685462542266946</v>
+        <v>1.700291320270273</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.766401119991799</v>
@@ -9487,7 +9379,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.688422698046426</v>
+        <v>1.699222250180313</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.658258769725125</v>
@@ -9576,7 +9468,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.688255673089643</v>
+        <v>1.696151238628645</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.650404917098859</v>
@@ -9665,7 +9557,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.716626136300107</v>
+        <v>1.717626393917481</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.722277294648582</v>
@@ -9754,7 +9646,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686352756484686</v>
+        <v>1.694485503889068</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.698659936697628</v>
@@ -9843,7 +9735,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.708016741842936</v>
+        <v>1.715271638966543</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.560295833516392</v>
@@ -9932,7 +9824,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688382398751227</v>
+        <v>1.699884311602156</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.869149801868265</v>
@@ -10021,7 +9913,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.697072762797392</v>
+        <v>1.707650840403439</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.579445215448211</v>
@@ -10110,7 +10002,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720662279033505</v>
+        <v>1.728360486015917</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.541304366129983</v>
@@ -10199,7 +10091,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682291873268604</v>
+        <v>1.689277111790772</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.712049594084702</v>
@@ -10288,7 +10180,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.668947022290415</v>
+        <v>1.671563533012251</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.66378332122901</v>
@@ -10377,7 +10269,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.660927688966084</v>
+        <v>1.666672476356555</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.769541948683309</v>
@@ -10466,7 +10358,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.670419604718674</v>
+        <v>1.676972058285751</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.773425751654159</v>
@@ -10555,7 +10447,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.676050666676304</v>
+        <v>1.671958945037598</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.495140090610713</v>
@@ -10644,7 +10536,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.696893945265902</v>
+        <v>1.691197325331245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.576120029633881</v>
@@ -10733,7 +10625,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69968580205906</v>
+        <v>1.690271022035153</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.730411188758362</v>
@@ -10822,7 +10714,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.701701459714497</v>
+        <v>1.694005986084257</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.708889799346425</v>
@@ -10911,7 +10803,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673001802008143</v>
+        <v>1.676083089518732</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.739631480613539</v>
@@ -11000,7 +10892,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.672130950890524</v>
+        <v>1.675894401504786</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.366597165863617</v>
@@ -11089,7 +10981,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.672697884524007</v>
+        <v>1.676029310925534</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.648625897176542</v>
@@ -11178,7 +11070,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.680597149061265</v>
+        <v>1.681720454494253</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.459022528948675</v>
@@ -11267,7 +11159,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671637691586648</v>
+        <v>1.672583604239519</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.77809253989095</v>
@@ -11356,7 +11248,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.676865332278076</v>
+        <v>1.681669976148525</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.816978805979335</v>
@@ -11445,7 +11337,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.676610667612554</v>
+        <v>1.682153359697006</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.778909678353969</v>
@@ -11534,7 +11426,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.703925691055724</v>
+        <v>1.712558048412706</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.696593427454977</v>
@@ -11623,7 +11515,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722567737097324</v>
+        <v>1.733978386449879</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.79988433761092</v>
@@ -11712,7 +11604,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.7181227328392</v>
+        <v>1.732739307730053</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.966184321421453</v>
@@ -11801,7 +11693,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.712779932881579</v>
+        <v>1.728462511295875</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.827922088279373</v>
@@ -11890,7 +11782,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688358976027201</v>
+        <v>1.707759827681871</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.863248825180394</v>
@@ -11979,7 +11871,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.684223445682021</v>
+        <v>1.700356882558071</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.889777731108416</v>
@@ -12068,7 +11960,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.68326893936822</v>
+        <v>1.702730193256729</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.77754716308525</v>
@@ -12157,7 +12049,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.66145733652254</v>
+        <v>1.682182803009685</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.047271925139257</v>
@@ -12246,7 +12138,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.653462916494685</v>
+        <v>1.673845059588758</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.846396839299929</v>
@@ -12335,7 +12227,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.664170794103527</v>
+        <v>1.680883763458447</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.650752043149367</v>
@@ -12424,7 +12316,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.667351442224937</v>
+        <v>1.683317884669058</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.78416250246007</v>
@@ -12513,7 +12405,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.668549708666533</v>
+        <v>1.684643690307448</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.936228680567063</v>
@@ -12602,7 +12494,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.683543326680199</v>
+        <v>1.699638968980172</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.989543724382485</v>
@@ -12888,7 +12780,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452470300082515</v>
+        <v>1.472459795134395</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.081244849180799</v>
@@ -12977,7 +12869,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.450328052148573</v>
+        <v>1.467422768708114</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.098284519719181</v>
@@ -13066,7 +12958,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.445530692696257</v>
+        <v>1.461094248633989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.128379892583814</v>
@@ -13155,7 +13047,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443534444998166</v>
+        <v>1.459460543043037</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.060466790932593</v>
@@ -13244,7 +13136,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.448441546025353</v>
+        <v>1.461543445612244</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.111948929843162</v>
@@ -13333,7 +13225,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.447395549975194</v>
+        <v>1.452994035116715</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.082763196041041</v>
@@ -13422,7 +13314,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443208480877086</v>
+        <v>1.453122674772713</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.063681413897707</v>
@@ -13511,7 +13403,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.451062908777094</v>
+        <v>1.459791012927663</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.059814453034765</v>
@@ -13600,7 +13492,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436888077089125</v>
+        <v>1.44691221331408</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001279275732301</v>
@@ -13689,7 +13581,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425383627182931</v>
+        <v>1.407633342963517</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.037771938527063</v>
@@ -13778,7 +13670,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.397850184545148</v>
+        <v>1.390374222656652</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.104341215407252</v>
@@ -13867,7 +13759,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.409095565074268</v>
+        <v>1.394781305474012</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.166786743473838</v>
@@ -13956,7 +13848,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.404340601135541</v>
+        <v>1.389481397581618</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.891677553633732</v>
@@ -14045,7 +13937,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.445292995420469</v>
+        <v>1.416988099045784</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.873552235161747</v>
@@ -14134,7 +14026,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.437801189521067</v>
+        <v>1.402014324059639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.968429292095313</v>
@@ -14223,7 +14115,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.434145608414602</v>
+        <v>1.3992184312752</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.971223490623585</v>
@@ -14312,7 +14204,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.419549630112024</v>
+        <v>1.38939123916593</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.97798421516921</v>
@@ -14401,7 +14293,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.41786955191863</v>
+        <v>1.384966008696181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.99993172864286</v>
@@ -14490,7 +14382,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.422699039854516</v>
+        <v>1.389687734367763</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.961798097249508</v>
@@ -14579,7 +14471,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.427188907458949</v>
+        <v>1.395631170900178</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.960670584331047</v>
@@ -14668,7 +14560,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.420596144826914</v>
+        <v>1.393460437256865</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.975253068253547</v>
@@ -14757,7 +14649,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.419775017450836</v>
+        <v>1.389186617923421</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.962711802931294</v>
@@ -14846,7 +14738,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.420161791330348</v>
+        <v>1.402425375195356</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.011604389158527</v>
@@ -14935,7 +14827,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461825442932353</v>
+        <v>1.456475846922941</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.139901803603016</v>
@@ -15024,7 +14916,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.447339729102338</v>
+        <v>1.459275961381101</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.193140312635974</v>
@@ -15113,7 +15005,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.462253435723189</v>
+        <v>1.476537862608926</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.204861437970508</v>
@@ -15202,7 +15094,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.472173170566487</v>
+        <v>1.487014233188984</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.061922084905111</v>
@@ -15291,7 +15183,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.465982581627722</v>
+        <v>1.48017497748954</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.20887389548579</v>
@@ -15380,7 +15272,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.450074676311028</v>
+        <v>1.475018557000614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.175406447989308</v>
@@ -15469,7 +15361,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.458922836159754</v>
+        <v>1.487238966098804</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.180898334879048</v>
@@ -15558,7 +15450,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.457067087861026</v>
+        <v>1.48794880585562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.221515721311588</v>
@@ -15647,7 +15539,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.471816754260423</v>
+        <v>1.502077319982168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.180464553899026</v>
@@ -15736,7 +15628,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496238247790285</v>
+        <v>1.521079500902136</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.045271112049019</v>
@@ -15825,7 +15717,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.466501201494941</v>
+        <v>1.503753959647974</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.049085088187595</v>
@@ -15914,7 +15806,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459427291697063</v>
+        <v>1.499762684930706</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.097041703276858</v>
@@ -16003,7 +15895,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461847344720006</v>
+        <v>1.502729545352247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.133462570805844</v>
@@ -16092,7 +15984,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.45972916779705</v>
+        <v>1.501504303141587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.094109903059139</v>
@@ -16181,7 +16073,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.466165480219326</v>
+        <v>1.5024391258743</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.142461798377463</v>
@@ -16270,7 +16162,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.428565476749328</v>
+        <v>1.458499772393369</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.022518925009309</v>
@@ -16359,7 +16251,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.488903927397422</v>
+        <v>1.521912557083997</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.945304334808458</v>
@@ -16448,7 +16340,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494185219640951</v>
+        <v>1.528383270493456</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.886550029792955</v>
@@ -16537,7 +16429,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.493941067299156</v>
+        <v>1.531909725856189</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.943780378168497</v>
@@ -16626,7 +16518,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49206249272268</v>
+        <v>1.5257270249571</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.007573229032926</v>
@@ -16715,7 +16607,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477971021056055</v>
+        <v>1.515834642210894</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.967676474351042</v>
@@ -16804,7 +16696,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.518621841855214</v>
+        <v>1.551825898908719</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.011687899073066</v>
@@ -16893,7 +16785,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.501547536879952</v>
+        <v>1.534238603286474</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.097806519030556</v>
@@ -16982,7 +16874,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.489648712253621</v>
+        <v>1.528481942008411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.153750133742359</v>
@@ -17071,7 +16963,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.485821436816267</v>
+        <v>1.522303923772501</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.068661837631935</v>
@@ -17160,7 +17052,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.487360561181208</v>
+        <v>1.527573462041987</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.115739754611142</v>
@@ -17249,7 +17141,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.49213564631548</v>
+        <v>1.527778838483456</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.091846840375209</v>
@@ -17338,7 +17230,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.481632423281728</v>
+        <v>1.519573533983886</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.165471386073636</v>
@@ -17427,7 +17319,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.484335381982428</v>
+        <v>1.522694204250504</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.198606083281521</v>
@@ -17516,7 +17408,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.483907926387848</v>
+        <v>1.524458372682216</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.171243399764912</v>
@@ -17605,7 +17497,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.477313029430835</v>
+        <v>1.518043251312718</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.205563467419409</v>
@@ -17694,7 +17586,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.474268310001796</v>
+        <v>1.516686955733207</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.189699248028099</v>
@@ -17783,7 +17675,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.470576928727483</v>
+        <v>1.514866085070624</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.259234142902692</v>
@@ -17872,7 +17764,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.473298564525931</v>
+        <v>1.517726519630092</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.193501248471223</v>
@@ -17961,7 +17853,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.490828733679757</v>
+        <v>1.534161420289877</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.030695845659225</v>
@@ -18050,7 +17942,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.497735903973609</v>
+        <v>1.54067109173663</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.181339554752454</v>
@@ -18139,7 +18031,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.479375899190111</v>
+        <v>1.524879994251081</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.022024720216312</v>
@@ -18228,7 +18120,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.47679764915359</v>
+        <v>1.52138073739899</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.135934218563624</v>
@@ -18514,7 +18406,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.317301639285235</v>
+        <v>1.325912934172234</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.114086681193199</v>
@@ -18603,7 +18495,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.327579673115659</v>
+        <v>1.336034303138987</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.075488086767483</v>
@@ -18692,7 +18584,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.334218388368591</v>
+        <v>1.344711007395693</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.111828733927796</v>
@@ -18781,7 +18673,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.336723653118707</v>
+        <v>1.346284140662581</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.140624984340139</v>
@@ -18870,7 +18762,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340116210705697</v>
+        <v>1.348310210678352</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.057395285114485</v>
@@ -18959,7 +18851,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.379559718656709</v>
+        <v>1.387741272977151</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.057559864992706</v>
@@ -19048,7 +18940,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.391267641129274</v>
+        <v>1.398437342199145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.244338226813793</v>
@@ -19137,7 +19029,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.416716743304742</v>
+        <v>1.41406540741428</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.032558293079049</v>
@@ -19226,7 +19118,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504366932361846</v>
+        <v>1.506334871644528</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.323789779427116</v>
@@ -19315,7 +19207,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492353477524786</v>
+        <v>1.492843756577971</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.188209855431321</v>
@@ -19404,7 +19296,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.4719165165628</v>
+        <v>1.472068208906864</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.174533535444093</v>
@@ -19493,7 +19385,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474867439369938</v>
+        <v>1.475044511326461</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.184795143267387</v>
@@ -19582,7 +19474,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.520845666926439</v>
+        <v>1.515181829028773</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.076811666563114</v>
@@ -19671,7 +19563,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623498200568486</v>
+        <v>1.636857900192229</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.337706041371546</v>
@@ -19760,7 +19652,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.647464246249871</v>
+        <v>1.65543878942783</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.662268401430649</v>
@@ -19849,7 +19741,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644896918008391</v>
+        <v>1.654703008018962</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.680101357124696</v>
@@ -19938,7 +19830,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.636868275930345</v>
+        <v>1.643354879187686</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.505159557396834</v>
@@ -20027,7 +19919,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630481572323103</v>
+        <v>1.641719967854883</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.623214376276489</v>
@@ -20116,7 +20008,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628894502009706</v>
+        <v>1.644765348262822</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.487674715676763</v>
@@ -20205,7 +20097,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639440621762799</v>
+        <v>1.65509659582363</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.665757855392236</v>
@@ -20294,7 +20186,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.637558348559329</v>
+        <v>1.65570755770994</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.491707307633632</v>
@@ -20383,7 +20275,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.634129039806943</v>
+        <v>1.655818243357345</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.439909921228886</v>
@@ -20472,7 +20364,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488055330891362</v>
+        <v>1.512618289932796</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.719465209763138</v>
@@ -20561,7 +20453,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.400709494635143</v>
+        <v>1.436166068139215</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.741693499691865</v>
@@ -20650,7 +20542,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412723472835152</v>
+        <v>1.446424034423606</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.715341084420112</v>
@@ -20739,7 +20631,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.429518539321189</v>
+        <v>1.469384640847622</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.724209519831806</v>
@@ -20828,7 +20720,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.428717997948127</v>
+        <v>1.469853843901901</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.726531387507433</v>
@@ -20917,7 +20809,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432738542255779</v>
+        <v>1.473776076251982</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.72986058217204</v>
@@ -21006,7 +20898,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.428904355205708</v>
+        <v>1.471112260062969</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.725674483678648</v>
@@ -21095,7 +20987,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.419436484394099</v>
+        <v>1.460502227133169</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.733024100416865</v>
@@ -21184,7 +21076,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.423551895890856</v>
+        <v>1.463741081379694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.731217244247859</v>
@@ -21273,7 +21165,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.427107333868324</v>
+        <v>1.470484285714545</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.73197819266971</v>
@@ -21362,7 +21254,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.429540444969655</v>
+        <v>1.464184590307462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.729061070039124</v>
@@ -21451,7 +21343,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.397500804463758</v>
+        <v>1.435423921339658</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.726176039974087</v>
@@ -21540,7 +21432,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.38909630419035</v>
+        <v>1.421779546284258</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.748916997628675</v>
@@ -21629,7 +21521,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.386649928456324</v>
+        <v>1.420489806196154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.741657309438812</v>
@@ -21718,7 +21610,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.390101500673504</v>
+        <v>1.423096770105776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.73565273170982</v>
@@ -21807,7 +21699,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.527860540714517</v>
+        <v>1.557581304372007</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.872724483173733</v>
@@ -21896,7 +21788,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607051779641094</v>
+        <v>1.629504510833967</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.359767130340753</v>
@@ -21985,7 +21877,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.625827552425872</v>
+        <v>1.648630590529492</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.529894512190149</v>
@@ -22074,7 +21966,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627516201740583</v>
+        <v>1.647025147784504</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.43715227628358</v>
@@ -22163,7 +22055,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606150940813796</v>
+        <v>1.627227487104111</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.529492776864404</v>
@@ -22252,7 +22144,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584272853029866</v>
+        <v>1.60262536729954</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.497577740755013</v>
@@ -22341,7 +22233,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.570607905090555</v>
+        <v>1.589363930412379</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.515791850727433</v>
@@ -22430,7 +22322,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594530972518726</v>
+        <v>1.606106324661805</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.468458541235866</v>
@@ -22519,7 +22411,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.527011996959388</v>
+        <v>1.543578310295596</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.406652278739441</v>
@@ -22608,7 +22500,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.501979779534088</v>
+        <v>1.520151554709863</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.399249727670095</v>
@@ -22697,7 +22589,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.518908404827105</v>
+        <v>1.539386947209094</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.184441711954561</v>
@@ -22786,7 +22678,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.544437797428762</v>
+        <v>1.564684631478589</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.455562325585979</v>
@@ -22875,7 +22767,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.570186439121699</v>
+        <v>1.591171892493739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.35282196178286</v>
@@ -22964,7 +22856,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549547282033747</v>
+        <v>1.573546063741466</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.423881393571553</v>
@@ -23053,7 +22945,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.541721790300846</v>
+        <v>1.564585829958593</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.388145562385631</v>
@@ -23142,7 +23034,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.521439980586657</v>
+        <v>1.547592888686788</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.397023077195851</v>
@@ -23231,7 +23123,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.510167465324823</v>
+        <v>1.53679036664731</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.43850104006139</v>
@@ -23320,7 +23212,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507987948489155</v>
+        <v>1.534753159564833</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.447748000754917</v>
@@ -23409,7 +23301,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.496751422741076</v>
+        <v>1.524476571634532</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.391145728626209</v>
@@ -23498,7 +23390,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.499594200202241</v>
+        <v>1.528753241135245</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.415792249592493</v>
@@ -23587,7 +23479,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.527491098363541</v>
+        <v>1.556641138417534</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.249787428229021</v>
@@ -23676,7 +23568,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.530056233401984</v>
+        <v>1.561245702891642</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.344828103382834</v>
@@ -23765,7 +23657,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.514420047867869</v>
+        <v>1.54943688504434</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.092912596786886</v>
@@ -23854,7 +23746,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.565573494227418</v>
+        <v>1.605136797672865</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.468850008568824</v>
@@ -24140,7 +24032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.641524464218289</v>
+        <v>1.645355835317339</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.656394351986409</v>
@@ -24229,7 +24121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.665207139582808</v>
+        <v>1.669161805617909</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.532720321926297</v>
@@ -24318,7 +24210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68509728227728</v>
+        <v>1.691024726296416</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.680438225109762</v>
@@ -24407,7 +24299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.690034192395434</v>
+        <v>1.696929338711434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.572860920840253</v>
@@ -24496,7 +24388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.697698899233036</v>
+        <v>1.706190274755472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.594706581438872</v>
@@ -24585,7 +24477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.713168411908318</v>
+        <v>1.721366819127371</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.534101435621921</v>
@@ -24674,7 +24566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.721858586934474</v>
+        <v>1.733839729958984</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.649599938755904</v>
@@ -24763,7 +24655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.738280637998252</v>
+        <v>1.747020215424207</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.693474714778286</v>
@@ -24852,7 +24744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.756154025469515</v>
+        <v>1.762888483761641</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.695859364552571</v>
@@ -24941,7 +24833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.7478575923167</v>
+        <v>1.757931875050553</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.681237397935451</v>
@@ -25030,7 +24922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.744752087900207</v>
+        <v>1.752656185107133</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.760194333934372</v>
@@ -25119,7 +25011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.741361520378579</v>
+        <v>1.750453037150953</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.604504701815223</v>
@@ -25208,7 +25100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.748578138511386</v>
+        <v>1.750898043805558</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.474771085491558</v>
@@ -25297,7 +25189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.761964570057535</v>
+        <v>1.76461794820016</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.017957072257394</v>
@@ -25386,7 +25278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.763164066698691</v>
+        <v>1.763942080447952</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.225804426840498</v>
@@ -25475,7 +25367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.768363236242513</v>
+        <v>1.766194226932634</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.115398441399897</v>
@@ -25564,7 +25456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.763084223725975</v>
+        <v>1.759903933607611</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.949765376036439</v>
@@ -25653,7 +25545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.765169220778026</v>
+        <v>1.767293096500054</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.915835446184614</v>
@@ -25742,7 +25634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.773711837158473</v>
+        <v>1.77525548681264</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.825876687230308</v>
@@ -25831,7 +25723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.784135891464836</v>
+        <v>1.782525802256173</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.913022920235261</v>
@@ -25920,7 +25812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.804117188998014</v>
+        <v>1.801546713331854</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.046202292447875</v>
@@ -26009,7 +25901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.807489490318956</v>
+        <v>1.802284282562296</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.211719307328059</v>
@@ -26098,7 +25990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.795250054238374</v>
+        <v>1.799786209492681</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.7188237512218</v>
@@ -26187,7 +26079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.792249640231042</v>
+        <v>1.790084553009793</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.9043305579182</v>
@@ -26276,7 +26168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.793086909003261</v>
+        <v>1.788778308835538</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.712404160132855</v>
@@ -26365,7 +26257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.787576662786098</v>
+        <v>1.784036248738909</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.816516631785388</v>
@@ -26454,7 +26346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.789397814455649</v>
+        <v>1.785929662604776</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.80064684984698</v>
@@ -26543,7 +26435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.79150910885846</v>
+        <v>1.791614893110289</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.786847581493935</v>
@@ -26632,7 +26524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.784653129152212</v>
+        <v>1.789313619362931</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.775565822292698</v>
@@ -26721,7 +26613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.782919804721087</v>
+        <v>1.789094796924861</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.816565729712916</v>
@@ -26810,7 +26702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.774793865782732</v>
+        <v>1.781793630734462</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.86852892625441</v>
@@ -26899,7 +26791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779265732140623</v>
+        <v>1.784501591850485</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.712635099625316</v>
@@ -26988,7 +26880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.797600875300445</v>
+        <v>1.802953228612842</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.694561106326715</v>
@@ -27077,7 +26969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766958171435292</v>
+        <v>1.77963694537145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.610870042914548</v>
@@ -27166,7 +27058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.765015267996336</v>
+        <v>1.77541240105062</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.788689572057758</v>
@@ -27255,7 +27147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.758270841811807</v>
+        <v>1.766076763458709</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.695761990052215</v>
@@ -27344,7 +27236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.764124263418235</v>
+        <v>1.769206163800914</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.516148854567351</v>
@@ -27433,7 +27325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.775526212169221</v>
+        <v>1.77011726808441</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.604268706648787</v>
@@ -27522,7 +27414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.779433023242469</v>
+        <v>1.774811684146809</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.268132414487848</v>
@@ -27611,7 +27503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.798087277417382</v>
+        <v>1.79333123336135</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.514332178474885</v>
@@ -27700,7 +27592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.799764295376023</v>
+        <v>1.797248183943381</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.463403588128607</v>
@@ -27789,7 +27681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.794106224934875</v>
+        <v>1.795931899206932</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.494360946908789</v>
@@ -27878,7 +27770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.805475196619212</v>
+        <v>1.806668282313663</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.791658399994096</v>
@@ -27967,7 +27859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.78873132199704</v>
+        <v>1.794600838359728</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.536141826395953</v>
@@ -28056,7 +27948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.802866453206583</v>
+        <v>1.80315005448189</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.564954810891992</v>
@@ -28145,7 +28037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.794928093075707</v>
+        <v>1.805078677523472</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.630940113609358</v>
@@ -28234,7 +28126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.788843568501603</v>
+        <v>1.800624046860196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.682564858883631</v>
@@ -28323,7 +28215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.789355609758871</v>
+        <v>1.792587329307169</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.721160635985175</v>
@@ -28412,7 +28304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.800531008489735</v>
+        <v>1.806608631187823</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.700185577609932</v>
@@ -28501,7 +28393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.808012069332511</v>
+        <v>1.814522092518648</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.643474846625623</v>
@@ -28590,7 +28482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.792867903145259</v>
+        <v>1.805384963941455</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.819623196566524</v>
@@ -28679,7 +28571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.793601197174721</v>
+        <v>1.8063745897808</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.737218003346169</v>
@@ -28768,7 +28660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.791789710448248</v>
+        <v>1.807264262909825</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.721055826119648</v>
@@ -28857,7 +28749,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.790607783694101</v>
+        <v>1.80663245708581</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.701794089792039</v>
@@ -28946,7 +28838,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.786184326414696</v>
+        <v>1.800875136692782</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.758403940208563</v>
@@ -29035,7 +28927,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.77247530573007</v>
+        <v>1.790796100194763</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.72217369610966</v>
@@ -29124,7 +29016,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.771361713377025</v>
+        <v>1.787378856257575</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.835574462486962</v>
@@ -29213,7 +29105,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.772775641455881</v>
+        <v>1.787923053415643</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.518164392449498</v>
@@ -29302,7 +29194,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.781756705482478</v>
+        <v>1.795244227443036</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.689856011814045</v>
@@ -29391,7 +29283,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.778945714532715</v>
+        <v>1.790914825801752</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.589870738341498</v>
@@ -29480,7 +29372,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.773376000783105</v>
+        <v>1.781671855330786</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.014184769044451</v>
@@ -29766,7 +29658,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464871202290912</v>
+        <v>1.495037367779728</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.091285048996102</v>
@@ -29855,7 +29747,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460374082049091</v>
+        <v>1.491273983013267</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.090005825580778</v>
@@ -29944,7 +29836,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.456153054473377</v>
+        <v>1.483942171175222</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.07710565513904</v>
@@ -30033,7 +29925,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.449802862322759</v>
+        <v>1.475982144261096</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.120743451483255</v>
@@ -30122,7 +30014,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.450894372113595</v>
+        <v>1.48034665436794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.069272246128107</v>
@@ -30211,7 +30103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.449941368625135</v>
+        <v>1.47477455281542</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.047297452076623</v>
@@ -30300,7 +30192,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.459601885890649</v>
+        <v>1.481412304890859</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.047698875575747</v>
@@ -30389,7 +30281,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.468013938938074</v>
+        <v>1.484535152585909</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.070744138730817</v>
@@ -30478,7 +30370,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.49438607243445</v>
+        <v>1.507007529005659</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001378038393831</v>
@@ -30567,7 +30459,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.491645263715971</v>
+        <v>1.504169412285151</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.063323883012481</v>
@@ -30656,7 +30548,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.486974239099073</v>
+        <v>1.499003169310282</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.06376749834472</v>
@@ -30745,7 +30637,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510928926505902</v>
+        <v>1.518165786566843</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.086279853904723</v>
@@ -30834,7 +30726,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530741757384409</v>
+        <v>1.528434384242833</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.811390589662612</v>
@@ -30923,7 +30815,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.572512063271761</v>
+        <v>1.56238789923376</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.152324805327528</v>
@@ -31012,7 +30904,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.583956981291958</v>
+        <v>1.565703421812715</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.306462246298154</v>
@@ -31101,7 +30993,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.581740703165013</v>
+        <v>1.562925176245273</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.270273167110457</v>
@@ -31190,7 +31082,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.597795909022814</v>
+        <v>1.568494772291577</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.34338550664842</v>
@@ -31279,7 +31171,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.619405566840453</v>
+        <v>1.58826077507396</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.328239007585053</v>
@@ -31368,7 +31260,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.635532277490337</v>
+        <v>1.600537583364235</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.335383244436808</v>
@@ -31457,7 +31349,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639026066861517</v>
+        <v>1.599464855320528</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.350797408887658</v>
@@ -31546,7 +31438,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642459330042413</v>
+        <v>1.602888988139713</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.26956981454375</v>
@@ -31635,7 +31527,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630969441166434</v>
+        <v>1.592036575195175</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.344609223766472</v>
@@ -31724,7 +31616,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.616722023173319</v>
+        <v>1.591781543439514</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.104335646513595</v>
@@ -31813,7 +31705,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650315050226083</v>
+        <v>1.642393470912705</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.221666492141434</v>
@@ -31902,7 +31794,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.628636683983969</v>
+        <v>1.629902017778861</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.339495390637074</v>
@@ -31991,7 +31883,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.628851216137112</v>
+        <v>1.632311415020121</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.290946671696272</v>
@@ -32080,7 +31972,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.63418139035836</v>
+        <v>1.640977892524038</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.22217055843547</v>
@@ -32169,7 +32061,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.642168536785462</v>
+        <v>1.644559144899866</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.28040817074066</v>
@@ -32258,7 +32150,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.625347385417584</v>
+        <v>1.628898778401278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.228087781776684</v>
@@ -32347,7 +32239,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.628108036253513</v>
+        <v>1.63362625604033</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.2289636455517</v>
@@ -32436,7 +32328,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.621604129094558</v>
+        <v>1.629725983987244</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.284066169552171</v>
@@ -32525,7 +32417,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618536433609728</v>
+        <v>1.632483480651944</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.270227918887457</v>
@@ -32614,7 +32506,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63917424984265</v>
+        <v>1.648150292709881</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.189178730608514</v>
@@ -32703,7 +32595,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.568528172477997</v>
+        <v>1.598478201847165</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.249012396426125</v>
@@ -32792,7 +32684,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550248803577016</v>
+        <v>1.581693927335884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.246292204485063</v>
@@ -32881,7 +32773,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53941950268001</v>
+        <v>1.575636666874284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.332459012972274</v>
@@ -32970,7 +32862,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540422716434104</v>
+        <v>1.581438499806529</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.287437219679708</v>
@@ -33059,7 +32951,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.552340984978873</v>
+        <v>1.585226940175134</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.23595761699241</v>
@@ -33148,7 +33040,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.509152305356735</v>
+        <v>1.53213639056275</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.163697184112653</v>
@@ -33237,7 +33129,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527916247579849</v>
+        <v>1.545590883568576</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.118867935002707</v>
@@ -33326,7 +33218,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.526266396633676</v>
+        <v>1.541407660575633</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.054365356805697</v>
@@ -33415,7 +33307,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.510088754416065</v>
+        <v>1.528101914686273</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.083805311568503</v>
@@ -33504,7 +33396,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.513813598599361</v>
+        <v>1.534178090656423</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.199188299843407</v>
@@ -33593,7 +33485,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503600827075374</v>
+        <v>1.530590275920321</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.133409640212217</v>
@@ -33682,7 +33574,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530145010738449</v>
+        <v>1.559695942646889</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.173780982510138</v>
@@ -33771,7 +33663,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.532048322822734</v>
+        <v>1.569162789706001</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.282559209087086</v>
@@ -33860,7 +33752,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.517711821730802</v>
+        <v>1.555971506028178</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.297932713980375</v>
@@ -33949,7 +33841,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.521692278707581</v>
+        <v>1.555776839416627</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.168539477987375</v>
@@ -34038,7 +33930,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.55474082939302</v>
+        <v>1.587366068746482</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.578539611070134</v>
@@ -34127,7 +34019,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.582622230045839</v>
+        <v>1.612772648947675</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.554126020980635</v>
@@ -34216,7 +34108,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569117034416819</v>
+        <v>1.600110856783735</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.459533119678115</v>
@@ -34305,7 +34197,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.575952003386908</v>
+        <v>1.603338496742277</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.562281003154614</v>
@@ -34394,7 +34286,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566949159984059</v>
+        <v>1.597568700350619</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.527623272339202</v>
@@ -34483,7 +34375,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.56286041031107</v>
+        <v>1.597618190816622</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.664596135649927</v>
@@ -34572,7 +34464,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.567387860434719</v>
+        <v>1.597731034443902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.617263561033527</v>
@@ -34661,7 +34553,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.559453787572566</v>
+        <v>1.592884405897657</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.63209715352509</v>
@@ -34750,7 +34642,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.562365804065172</v>
+        <v>1.5955268160794</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.647916075469241</v>
@@ -34839,7 +34731,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.569034541301282</v>
+        <v>1.595465441412534</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.463310562396249</v>
@@ -34928,7 +34820,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.582908339429931</v>
+        <v>1.605369185179456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.481363964604701</v>
@@ -35017,7 +34909,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558413018628263</v>
+        <v>1.582161874419556</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.235884270975307</v>
@@ -35106,7 +34998,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.560489169363707</v>
+        <v>1.576184345664908</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.374183241011284</v>
@@ -35392,7 +35284,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495730618382784</v>
+        <v>1.517706867520099</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.741320122596287</v>
@@ -35481,7 +35373,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.53475995108919</v>
+        <v>1.549291202135105</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.353499239925657</v>
@@ -35570,7 +35462,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584661214773949</v>
+        <v>1.598882750951755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.562625136164022</v>
@@ -35659,7 +35551,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604119348587617</v>
+        <v>1.616029265361978</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.535418816208673</v>
@@ -35748,7 +35640,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.617549004281407</v>
+        <v>1.626260697193158</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.57812866334326</v>
@@ -35837,7 +35729,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.66088365961744</v>
+        <v>1.66851440899496</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.352604319257093</v>
@@ -35926,7 +35818,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.707062886268672</v>
+        <v>1.710213665135812</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.566224964564777</v>
@@ -36015,7 +35907,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.712227978193989</v>
+        <v>1.711649239282518</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.809295189078997</v>
@@ -36104,7 +35996,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.70686684244092</v>
+        <v>1.709872278836357</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.867922436408925</v>
@@ -36193,7 +36085,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.685501908292724</v>
+        <v>1.692675807320225</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.664726146443135</v>
@@ -36282,7 +36174,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679522898105484</v>
+        <v>1.688976685145703</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.764738980103006</v>
@@ -36371,7 +36263,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.678666861372552</v>
+        <v>1.687484327321753</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.814637795304574</v>
@@ -36460,7 +36352,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699600978882022</v>
+        <v>1.70493117702162</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.635407624014173</v>
@@ -36549,7 +36441,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.728143636082036</v>
+        <v>1.738703073152849</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.962266330854554</v>
@@ -36638,7 +36530,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.717493140844912</v>
+        <v>1.725229114267856</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.950401906764905</v>
@@ -36727,7 +36619,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.725211626254837</v>
+        <v>1.733853535818678</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.687397261779917</v>
@@ -36816,7 +36708,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.725353743733766</v>
+        <v>1.729381344707559</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.921611873474555</v>
@@ -36905,7 +36797,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.720538313238795</v>
+        <v>1.729011707385215</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.953011179272977</v>
@@ -36994,7 +36886,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.732826093348859</v>
+        <v>1.744866983576938</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723996203896251</v>
@@ -37083,7 +36975,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.759501048326556</v>
+        <v>1.77191943154544</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.969411925434501</v>
@@ -37172,7 +37064,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.780620534433218</v>
+        <v>1.787589231473172</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.915412197919428</v>
@@ -37261,7 +37153,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.779858382018929</v>
+        <v>1.786281451889927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.747929762747944</v>
@@ -37350,7 +37242,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.767062500540421</v>
+        <v>1.772172413539063</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.669865340522097</v>
@@ -37439,7 +37331,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.736376500473598</v>
+        <v>1.756086118327151</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.832751092656376</v>
@@ -37528,7 +37420,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.747952976850463</v>
+        <v>1.763119408404424</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.823831052144651</v>
@@ -37617,7 +37509,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.75193718925334</v>
+        <v>1.763128719998418</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.733766909596734</v>
@@ -37706,7 +37598,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.752249434893775</v>
+        <v>1.766499071663568</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.881041886146999</v>
@@ -37795,7 +37687,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.773533234596734</v>
+        <v>1.785140660822364</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.839850014300638</v>
@@ -37884,7 +37776,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.750220702967435</v>
+        <v>1.766889364445301</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.821878463491748</v>
@@ -37973,7 +37865,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.761860319787712</v>
+        <v>1.778909405459517</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.658806262041857</v>
@@ -38062,7 +37954,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.745122291495875</v>
+        <v>1.760035257372817</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.781042310240844</v>
@@ -38151,7 +38043,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.760290820806764</v>
+        <v>1.77675947878217</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.610296890455864</v>
@@ -38240,7 +38132,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.776976477891923</v>
+        <v>1.786903605842785</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.659728613836629</v>
@@ -38329,7 +38221,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.738658940392016</v>
+        <v>1.754118677378301</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.855302380766859</v>
@@ -38418,7 +38310,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.720826167741177</v>
+        <v>1.727478531283342</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.781063445495692</v>
@@ -38507,7 +38399,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712897357615527</v>
+        <v>1.726385443807392</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.724412863450456</v>
@@ -38596,7 +38488,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714352410582533</v>
+        <v>1.730204455927409</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.77373015901709</v>
@@ -38685,7 +38577,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.738364737544628</v>
+        <v>1.742778921935897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.831634972751957</v>
@@ -38774,7 +38666,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.778503046493773</v>
+        <v>1.771425274439446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.071909015153731</v>
@@ -38863,7 +38755,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.793956223274505</v>
+        <v>1.783344840199096</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.025778073687017</v>
@@ -38952,7 +38844,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.788087482514992</v>
+        <v>1.779874775575631</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.851928634154607</v>
@@ -39041,7 +38933,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.762383499306117</v>
+        <v>1.758151246521814</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.034158556340981</v>
@@ -39130,7 +39022,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.735897483605073</v>
+        <v>1.740166552312838</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.550515228235538</v>
@@ -39219,7 +39111,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.735636337598925</v>
+        <v>1.740803794028335</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.944549633154468</v>
@@ -39308,7 +39200,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.743507852556528</v>
+        <v>1.746992027645692</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.767766646468644</v>
@@ -39397,7 +39289,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.737812010087093</v>
+        <v>1.739495453141355</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.082095242596622</v>
@@ -39486,7 +39378,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.731545207498004</v>
+        <v>1.733920519867161</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.970411887994705</v>
@@ -39575,7 +39467,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.737590241966256</v>
+        <v>1.736495915627728</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.760613497093765</v>
@@ -39664,7 +39556,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.761357227596826</v>
+        <v>1.75701810888996</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.952085239174042</v>
@@ -39753,7 +39645,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.786602276089782</v>
+        <v>1.777825497301239</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.819995619148118</v>
@@ -39842,7 +39734,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.777295882124287</v>
+        <v>1.76733984776351</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.953745736145104</v>
@@ -39931,7 +39823,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.769595447971425</v>
+        <v>1.761649257005261</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.775988409179555</v>
@@ -40020,7 +39912,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.748408681704698</v>
+        <v>1.745439753850794</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.052077097556466</v>
@@ -40109,7 +40001,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.741881871684953</v>
+        <v>1.738683174346612</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.00218468609451</v>
@@ -40198,7 +40090,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.739315169296421</v>
+        <v>1.732670462399297</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.866277529856102</v>
@@ -40287,7 +40179,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.714715328479851</v>
+        <v>1.709736686925883</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.923466133134879</v>
@@ -40376,7 +40268,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.699397283965506</v>
+        <v>1.694664046890928</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.843897457647553</v>
@@ -40465,7 +40357,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.728611948662284</v>
+        <v>1.714094379726956</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.712561783363118</v>
@@ -40554,7 +40446,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.730711492559653</v>
+        <v>1.715446015164896</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.787077431155812</v>
@@ -40643,7 +40535,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.724668231019043</v>
+        <v>1.706441394157177</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.76599778884362</v>
@@ -40732,7 +40624,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.737861412422446</v>
+        <v>1.722277619231169</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.847868361514849</v>
